--- a/code/only_graphopt_experiment/graphopt_75_mix_ch_elbow_results.xlsx
+++ b/code/only_graphopt_experiment/graphopt_75_mix_ch_elbow_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>size</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bestnum_algo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -486,6 +491,11 @@
       <c r="F2" t="n">
         <v>100</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,6 +518,11 @@
       <c r="F3" t="n">
         <v>100</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,6 +545,11 @@
       <c r="F4" t="n">
         <v>100</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -552,6 +572,11 @@
       <c r="F5" t="n">
         <v>100</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -573,6 +598,11 @@
       </c>
       <c r="F6" t="n">
         <v>100</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -596,6 +626,11 @@
       <c r="F7" t="n">
         <v>100</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -617,6 +652,11 @@
       </c>
       <c r="F8" t="n">
         <v>100</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -640,6 +680,11 @@
       <c r="F9" t="n">
         <v>100</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +707,11 @@
       <c r="F10" t="n">
         <v>100</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -684,6 +734,11 @@
       <c r="F11" t="n">
         <v>100</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -706,6 +761,11 @@
       <c r="F12" t="n">
         <v>100</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -728,6 +788,11 @@
       <c r="F13" t="n">
         <v>200</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -750,6 +815,11 @@
       <c r="F14" t="n">
         <v>200</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -772,6 +842,11 @@
       <c r="F15" t="n">
         <v>200</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -794,6 +869,11 @@
       <c r="F16" t="n">
         <v>200</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -816,6 +896,11 @@
       <c r="F17" t="n">
         <v>200</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -838,6 +923,11 @@
       <c r="F18" t="n">
         <v>200</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -860,6 +950,11 @@
       <c r="F19" t="n">
         <v>200</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -882,6 +977,11 @@
       <c r="F20" t="n">
         <v>200</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -904,6 +1004,11 @@
       <c r="F21" t="n">
         <v>200</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -926,6 +1031,11 @@
       <c r="F22" t="n">
         <v>200</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -948,6 +1058,11 @@
       <c r="F23" t="n">
         <v>200</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -970,6 +1085,11 @@
       <c r="F24" t="n">
         <v>300</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -992,6 +1112,11 @@
       <c r="F25" t="n">
         <v>300</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1014,6 +1139,11 @@
       <c r="F26" t="n">
         <v>300</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1036,6 +1166,11 @@
       <c r="F27" t="n">
         <v>300</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1058,6 +1193,11 @@
       <c r="F28" t="n">
         <v>300</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1080,6 +1220,11 @@
       <c r="F29" t="n">
         <v>300</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1102,6 +1247,11 @@
       <c r="F30" t="n">
         <v>300</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1124,6 +1274,11 @@
       <c r="F31" t="n">
         <v>300</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1146,6 +1301,11 @@
       <c r="F32" t="n">
         <v>300</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1168,6 +1328,11 @@
       <c r="F33" t="n">
         <v>300</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1190,6 +1355,11 @@
       <c r="F34" t="n">
         <v>300</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1212,6 +1382,11 @@
       <c r="F35" t="n">
         <v>400</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1234,6 +1409,11 @@
       <c r="F36" t="n">
         <v>400</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1256,6 +1436,11 @@
       <c r="F37" t="n">
         <v>400</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1278,6 +1463,11 @@
       <c r="F38" t="n">
         <v>400</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1300,6 +1490,11 @@
       <c r="F39" t="n">
         <v>400</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1322,6 +1517,11 @@
       <c r="F40" t="n">
         <v>400</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1344,6 +1544,11 @@
       <c r="F41" t="n">
         <v>400</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1366,6 +1571,11 @@
       <c r="F42" t="n">
         <v>400</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1388,6 +1598,11 @@
       <c r="F43" t="n">
         <v>400</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1410,6 +1625,11 @@
       <c r="F44" t="n">
         <v>400</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1432,6 +1652,11 @@
       <c r="F45" t="n">
         <v>400</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1454,6 +1679,11 @@
       <c r="F46" t="n">
         <v>500</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1476,6 +1706,11 @@
       <c r="F47" t="n">
         <v>500</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1498,6 +1733,11 @@
       <c r="F48" t="n">
         <v>500</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1520,6 +1760,11 @@
       <c r="F49" t="n">
         <v>500</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1542,6 +1787,11 @@
       <c r="F50" t="n">
         <v>500</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1564,6 +1814,11 @@
       <c r="F51" t="n">
         <v>500</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1586,6 +1841,11 @@
       <c r="F52" t="n">
         <v>500</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1608,6 +1868,11 @@
       <c r="F53" t="n">
         <v>500</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1630,6 +1895,11 @@
       <c r="F54" t="n">
         <v>500</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1652,6 +1922,11 @@
       <c r="F55" t="n">
         <v>500</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1674,6 +1949,11 @@
       <c r="F56" t="n">
         <v>500</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1696,6 +1976,11 @@
       <c r="F57" t="n">
         <v>600</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1718,6 +2003,11 @@
       <c r="F58" t="n">
         <v>600</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1740,6 +2030,11 @@
       <c r="F59" t="n">
         <v>600</v>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1762,6 +2057,11 @@
       <c r="F60" t="n">
         <v>600</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1784,6 +2084,11 @@
       <c r="F61" t="n">
         <v>600</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1806,6 +2111,11 @@
       <c r="F62" t="n">
         <v>600</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1828,6 +2138,11 @@
       <c r="F63" t="n">
         <v>600</v>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1850,6 +2165,11 @@
       <c r="F64" t="n">
         <v>600</v>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1872,6 +2192,11 @@
       <c r="F65" t="n">
         <v>600</v>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1894,6 +2219,11 @@
       <c r="F66" t="n">
         <v>600</v>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1915,6 +2245,11 @@
       </c>
       <c r="F67" t="n">
         <v>600</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>mix_75ch_25elbow</t>
+        </is>
       </c>
     </row>
   </sheetData>
